--- a/public/excel/templates/孩子名单导入模板.xlsx
+++ b/public/excel/templates/孩子名单导入模板.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-460" yWindow="-22600" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="临沂三中孩子名单" sheetId="1" r:id="rId1"/>
+    <sheet name="孩子名单" sheetId="1" r:id="rId1"/>
     <sheet name="选项规则表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>

--- a/public/excel/templates/孩子名单导入模板.xlsx
+++ b/public/excel/templates/孩子名单导入模板.xlsx
@@ -990,7 +990,7 @@
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>

--- a/public/excel/templates/孩子名单导入模板.xlsx
+++ b/public/excel/templates/孩子名单导入模板.xlsx
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -999,7 +999,8 @@
     <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -1007,7 +1008,8 @@
     <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -1040,7 +1042,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1067,7 +1069,7 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S1" s="2" t="s">
@@ -1096,7 +1098,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/public/excel/templates/孩子名单导入模板.xlsx
+++ b/public/excel/templates/孩子名单导入模板.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>序号</t>
   </si>
@@ -653,6 +653,13 @@
     <t>其他</t>
     <rPh sb="0" eb="1">
       <t>qi'ta</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <rPh sb="0" eb="1">
+      <t>ban'ji</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -987,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -999,25 +1006,26 @@
     <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1040,60 +1048,63 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1132,13 +1143,13 @@
           <x14:formula1>
             <xm:f>选项规则表!$M$1:$M$8</xm:f>
           </x14:formula1>
-          <xm:sqref>O1:O1048576</xm:sqref>
+          <xm:sqref>P1:P1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>选项规则表!$P$1:$P$7</xm:f>
           </x14:formula1>
-          <xm:sqref>Q1:Q1048576</xm:sqref>
+          <xm:sqref>R1:R1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
